--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15990" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>end-to-end</t>
   </si>
@@ -29,12 +30,40 @@
   <si>
     <t>Packet Transfer</t>
   </si>
+  <si>
+    <t>change alias</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>Update Packets</t>
+  </si>
+  <si>
+    <t>Seamless Mob</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>init ve reuse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _T_L_-;\-* #,##0.00\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,13 +89,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -76,24 +109,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="tr-TR"/>
+  <c:style val="18"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -105,16 +127,16 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
               <c:pt idx="0">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>100.0</c:v>
+                <c:v>100</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.0</c:v>
+                <c:v>300</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>500.0</c:v>
+                <c:v>500</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
@@ -123,10 +145,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
               <c:pt idx="0">
-                <c:v>0.0945</c:v>
+                <c:v>9.4500000000000015E-2</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>0.3</c:v>
+                <c:v>0.30000000000000004</c:v>
               </c:pt>
               <c:pt idx="2">
                 <c:v>0.4</c:v>
@@ -136,52 +158,36 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2114020472"/>
-        <c:axId val="2100815640"/>
+        <c:axId val="56499200"/>
+        <c:axId val="56513280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114020472"/>
+        <c:axId val="56499200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100815640"/>
+        <c:crossAx val="56513280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100815640"/>
+        <c:axId val="56513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114020472"/>
+        <c:crossAx val="56499200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -189,15 +195,110 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60926592"/>
+        <c:axId val="73306496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60926592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73306496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73306496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60926592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -205,24 +306,113 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="tr-TR"/>
+  <c:style val="18"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>3.2838000000000003</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.3499999999999996</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3.38</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="56889728"/>
+        <c:axId val="56891264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56889728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56891264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56891264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56889728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -234,16 +424,16 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
               <c:pt idx="0">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>100.0</c:v>
+                <c:v>100</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.0</c:v>
+                <c:v>300</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>500.0</c:v>
+                <c:v>500</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
@@ -252,65 +442,49 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
               <c:pt idx="0">
-                <c:v>3.2838</c:v>
+                <c:v>7.000000000000001E-4</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>3.3</c:v>
+                <c:v>2.0000000000000004E-2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>3.35</c:v>
+                <c:v>4.0000000000000008E-2</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>3.38</c:v>
+                <c:v>6.0000000000000005E-2</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2119547064"/>
-        <c:axId val="2119550152"/>
+        <c:axId val="56919552"/>
+        <c:axId val="56921088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119547064"/>
+        <c:axId val="56919552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119550152"/>
+        <c:crossAx val="56921088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119550152"/>
+        <c:axId val="56921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119547064"/>
+        <c:crossAx val="56919552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -318,40 +492,26 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="tr-TR"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -359,87 +519,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>1.0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>100.0</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>300.0</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>500.0</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>0.0007</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>0.02</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0.04</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>0.06</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2117247144"/>
-        <c:axId val="2118973048"/>
+        <c:axId val="56286208"/>
+        <c:axId val="37031936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117247144"/>
+        <c:axId val="56286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118973048"/>
+        <c:crossAx val="37031936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118973048"/>
+        <c:axId val="37031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117247144"/>
+        <c:crossAx val="56286208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,15 +592,497 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60408960"/>
+        <c:axId val="60410496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60408960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60410496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60410496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60408960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60855424"/>
+        <c:axId val="60857344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60855424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60857344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60857344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60855424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$43:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="61453824"/>
+        <c:axId val="61455360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="61453824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61455360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61455360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61453824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$63:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$64:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="42982016"/>
+        <c:axId val="56232960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42982016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56232960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56232960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42982016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="tr-TR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$83:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$84:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73104000"/>
+        <c:axId val="73134464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73104000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73134464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73134464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73104000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -548,6 +1175,221 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -877,27 +1719,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D10:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="10" max="10" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="4:4">
+    <row r="3" spans="4:7">
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7">
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="D10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:12">
       <c r="D30" t="s">
         <v>1</v>
       </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>300</v>
+      </c>
+      <c r="L30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="35" spans="10:14">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
@@ -913,4 +1808,176 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>0.26</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+      <c r="L4">
+        <v>0.35</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>0.13</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
+      </c>
+      <c r="D63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64">
+        <v>3.3</v>
+      </c>
+      <c r="C64">
+        <v>3.35</v>
+      </c>
+      <c r="D64">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>300</v>
+      </c>
+      <c r="D83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84">
+        <v>0.02</v>
+      </c>
+      <c r="C84">
+        <v>0.04</v>
+      </c>
+      <c r="D84">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>